--- a/ev_info.xlsx
+++ b/ev_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study related\sem7\smart-grids\project\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th Year\EE677\Project\Simulation-of-the-Valley-Filling-EV-Charging-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DA3761-D3B3-47DE-A256-B4155FB3EA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55250CE6-7C28-42A2-8CC1-200AE7F2AE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>EV_ID</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>Max_Charging_Rate</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -397,369 +418,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>14</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>19.3</v>
+        <v>52</v>
       </c>
       <c r="E2">
+        <v>17.3</v>
+      </c>
+      <c r="F2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>52</v>
-      </c>
       <c r="D3">
-        <v>15.9</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>52</v>
-      </c>
       <c r="D4">
-        <v>17.920000000000002</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>52</v>
-      </c>
       <c r="D5">
-        <v>22.84</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>52</v>
-      </c>
       <c r="D6">
-        <v>12.67</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50.3</v>
+      </c>
+      <c r="F6">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>52</v>
-      </c>
       <c r="D7">
-        <v>15.58</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>52</v>
-      </c>
       <c r="D8">
-        <v>23.51</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>52</v>
-      </c>
       <c r="D9">
-        <v>6.74</v>
+        <v>52</v>
       </c>
       <c r="E9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>52</v>
-      </c>
       <c r="D10">
-        <v>21.65</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.24</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>20</v>
       </c>
-      <c r="C11">
-        <v>52</v>
-      </c>
       <c r="D11">
-        <v>22.4</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>52</v>
-      </c>
       <c r="D12">
-        <v>20.98</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.9</v>
+      </c>
+      <c r="F12">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>52</v>
-      </c>
       <c r="D13">
-        <v>20.61</v>
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>52</v>
-      </c>
       <c r="D14">
-        <v>17.8</v>
+        <v>52</v>
       </c>
       <c r="E14">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8.9</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>52</v>
-      </c>
       <c r="D15">
-        <v>23.89</v>
+        <v>52</v>
       </c>
       <c r="E15">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>13</v>
       </c>
-      <c r="C16">
-        <v>52</v>
-      </c>
       <c r="D16">
-        <v>13.29</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>20.48</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>16.37</v>
-      </c>
-      <c r="E18">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="E19">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>52</v>
-      </c>
-      <c r="D20">
-        <v>17.34</v>
-      </c>
-      <c r="E20">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>52</v>
-      </c>
-      <c r="D21">
-        <v>18.64</v>
-      </c>
-      <c r="E21">
-        <v>3.3</v>
+        <v>29.2</v>
+      </c>
+      <c r="F17">
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>

--- a/ev_info.xlsx
+++ b/ev_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th Year\EE677\Project\Simulation-of-the-Valley-Filling-EV-Charging-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55250CE6-7C28-42A2-8CC1-200AE7F2AE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E1EB97-ABD5-4483-9F32-29CFA36AF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>17.3</v>
@@ -474,10 +474,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>24</v>
@@ -494,10 +494,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>35</v>
@@ -514,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>32</v>
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>50.3</v>
@@ -554,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>39.200000000000003</v>
@@ -574,10 +574,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>25</v>
@@ -594,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -614,10 +614,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>3.24</v>
@@ -634,10 +634,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>4.4000000000000004</v>
@@ -654,10 +654,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>2.9</v>
@@ -674,10 +674,10 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -694,10 +694,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>8.9</v>
@@ -714,10 +714,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -734,10 +734,10 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>72.599999999999994</v>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>29.2</v>
